--- a/Analysis/QuixBugs_Gemini-APR/APR_one_shot_Gemini_1.5_Flash_Java.xlsx
+++ b/Analysis/QuixBugs_Gemini-APR/APR_one_shot_Gemini_1.5_Flash_Java.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mraee\Desktop\Investigation\Bug Busters\Analysis\QuixBugs_Gemini-APR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85E175A9-194A-4B8E-9408-A046BB42C76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983E2CCE-F478-483D-ABF5-D8911416B224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9480" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{C6CACD6C-F79A-4777-97C6-E8AD124E8981}"/>
   </bookViews>
   <sheets>
     <sheet name="APR_one_shot_Gemini_1.5_Flash_J" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -7342,13 +7355,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3234C339-B59B-4003-9E5B-840AC34361EA}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="88" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="1" max="9" width="79.76953125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="79.76953125" style="2" customWidth="1"/>
+    <col min="2" max="9" width="16.08984375" style="2" customWidth="1"/>
     <col min="10" max="10" width="51.953125" style="2" customWidth="1"/>
     <col min="11" max="11" width="79.76953125" style="2" customWidth="1"/>
   </cols>
@@ -8150,7 +8164,7 @@
         <v>287</v>
       </c>
       <c r="J25" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -8209,7 +8223,7 @@
         <v>288</v>
       </c>
       <c r="J27" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -8369,7 +8383,7 @@
         <v>293</v>
       </c>
       <c r="J32" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -8401,7 +8415,7 @@
         <v>294</v>
       </c>
       <c r="J33" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -8497,7 +8511,7 @@
         <v>297</v>
       </c>
       <c r="J36" s="6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="409.5" x14ac:dyDescent="0.75">
@@ -8736,7 +8750,7 @@
       </c>
       <c r="J44" s="2">
         <f>COUNTIF(J2:J43,TRUE)</f>
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.75">
@@ -8756,7 +8770,7 @@
       </c>
       <c r="J45" s="2">
         <f>COUNTIF(J2:J43,FALSE)</f>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.75">
@@ -8776,7 +8790,7 @@
       </c>
       <c r="J46" s="2">
         <f>J44/(J44+J45)*100</f>
-        <v>65</v>
+        <v>77.5</v>
       </c>
     </row>
   </sheetData>
